--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/RateCurves.QR_LIVE.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/RateCurves.QR_LIVE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125DA0E-22EB-4BF1-B37A-4769807FFECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="14955" windowHeight="12525" tabRatio="701" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="285" windowWidth="26370" windowHeight="14820" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUDDiscountCurve" sheetId="9" r:id="rId1"/>
@@ -25,31 +26,23 @@
     <sheet name="CHFCurve3M" sheetId="16" r:id="rId11"/>
     <sheet name="Config" sheetId="10" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Algorithm" localSheetId="1">AUDCurves!$F$8</definedName>
     <definedName name="Algorithm" localSheetId="3">GBPCurves!$I$8</definedName>
-    <definedName name="Algorithm" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
     <definedName name="Algorithm" localSheetId="9">JPYCurveBBA!$I$8</definedName>
     <definedName name="Algorithm" localSheetId="8">JPYCurveISDA!$I$8</definedName>
     <definedName name="Algorithm" localSheetId="2">NZDCurves!$I$8</definedName>
     <definedName name="Algorithm" localSheetId="5">USDCurves!$I$8</definedName>
-    <definedName name="Algorithms" localSheetId="10">[1]Config!$E$2:$E$8</definedName>
     <definedName name="Algorithms">Config!$E$2:$E$8</definedName>
-    <definedName name="Currency" localSheetId="10">[1]Config!$C$2:$C$8</definedName>
     <definedName name="Currency">Config!$C$2:$C$10</definedName>
     <definedName name="CurveName" localSheetId="1">AUDCurves!$F$7</definedName>
     <definedName name="CurveName" localSheetId="3">GBPCurves!$I$7</definedName>
-    <definedName name="CurveName" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
     <definedName name="CurveName" localSheetId="9">JPYCurveBBA!$I$7</definedName>
     <definedName name="CurveName" localSheetId="8">JPYCurveISDA!$I$7</definedName>
     <definedName name="CurveName" localSheetId="2">NZDCurves!$I$7</definedName>
     <definedName name="CurveName" localSheetId="5">USDCurves!$I$7</definedName>
     <definedName name="CurveType" localSheetId="1">AUDCurves!$F$2</definedName>
     <definedName name="CurveType" localSheetId="3">GBPCurves!$I$2</definedName>
-    <definedName name="CurveType" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
     <definedName name="CurveType" localSheetId="9">JPYCurveBBA!$I$2</definedName>
     <definedName name="CurveType" localSheetId="8">JPYCurveISDA!$I$2</definedName>
     <definedName name="CurveType" localSheetId="2">NZDCurves!$I$2</definedName>
@@ -61,21 +54,11 @@
     <definedName name="HLInstruments" localSheetId="7">EURCurvesEuribor!$D$18:$D$44</definedName>
     <definedName name="HLInstruments" localSheetId="6">EURCurvesTelerate!$D$18:$D$44</definedName>
     <definedName name="HLInstruments" localSheetId="3">GBPCurves!$G$18:$G$44</definedName>
-    <definedName name="HLInstruments" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
     <definedName name="HLInstruments" localSheetId="9">JPYCurveBBA!$G$18:$G$49</definedName>
     <definedName name="HLInstruments" localSheetId="8">JPYCurveISDA!$G$18:$G$49</definedName>
     <definedName name="HLInstruments" localSheetId="2">NZDCurves!$G$18:$G$41</definedName>
     <definedName name="HLInstruments" localSheetId="5">USDCurves!$G$18:$G$49</definedName>
-    <definedName name="IndexTenor" localSheetId="1">AUDCurves!#REF!</definedName>
-    <definedName name="IndexTenor" localSheetId="0">AUDDiscountCurve!#REF!</definedName>
-    <definedName name="IndexTenor" localSheetId="3">GBPCurves!#REF!</definedName>
-    <definedName name="IndexTenor" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
-    <definedName name="IndexTenor" localSheetId="9">JPYCurveBBA!#REF!</definedName>
-    <definedName name="IndexTenor" localSheetId="8">JPYCurveISDA!#REF!</definedName>
-    <definedName name="IndexTenor" localSheetId="2">NZDCurves!#REF!</definedName>
-    <definedName name="IndexTenor" localSheetId="5">USDCurves!#REF!</definedName>
     <definedName name="Instruments">AUDCurves!$L$18:$L$41</definedName>
-    <definedName name="RateIndex" localSheetId="10">[1]Config!$D$2:$D$8</definedName>
     <definedName name="RateIndex">Config!$D$2:$D$10</definedName>
     <definedName name="Rates" localSheetId="1">AUDCurves!$E$18:$E$41</definedName>
     <definedName name="Rates" localSheetId="0">AUDDiscountCurve!$D$18:$D$41</definedName>
@@ -83,7 +66,6 @@
     <definedName name="Rates" localSheetId="7">EURCurvesEuribor!$E$18:$E$44</definedName>
     <definedName name="Rates" localSheetId="6">EURCurvesTelerate!$E$18:$E$44</definedName>
     <definedName name="Rates" localSheetId="3">GBPCurves!$H$18:$H$44</definedName>
-    <definedName name="Rates" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
     <definedName name="Rates" localSheetId="9">JPYCurveBBA!$H$18:$H$49</definedName>
     <definedName name="Rates" localSheetId="8">JPYCurveISDA!$H$18:$H$49</definedName>
     <definedName name="Rates" localSheetId="2">NZDCurves!$H$18:$H$41</definedName>
@@ -93,7 +75,6 @@
     <definedName name="ReferenceDate" localSheetId="7">EURCurvesEuribor!$F$4</definedName>
     <definedName name="ReferenceDate" localSheetId="6">EURCurvesTelerate!$F$4</definedName>
     <definedName name="ReferenceDate" localSheetId="3">GBPCurves!$I$4</definedName>
-    <definedName name="ReferenceDate" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
     <definedName name="ReferenceDate" localSheetId="9">JPYCurveBBA!$I$4</definedName>
     <definedName name="ReferenceDate" localSheetId="8">JPYCurveISDA!$I$4</definedName>
     <definedName name="ReferenceDate" localSheetId="2">NZDCurves!$I$4</definedName>
@@ -104,13 +85,20 @@
     <definedName name="Spreads" localSheetId="7">EURCurvesEuribor!$F$18:$F$44</definedName>
     <definedName name="Spreads" localSheetId="6">EURCurvesTelerate!$F$18:$F$44</definedName>
     <definedName name="Spreads" localSheetId="3">GBPCurves!$I$18:$I$44</definedName>
-    <definedName name="Spreads" localSheetId="4">GBPLIBORBBA!#REF!</definedName>
     <definedName name="Spreads" localSheetId="9">JPYCurveBBA!$I$18:$I$49</definedName>
     <definedName name="Spreads" localSheetId="8">JPYCurveISDA!$I$18:$I$49</definedName>
     <definedName name="Spreads" localSheetId="2">NZDCurves!$I$18:$I$41</definedName>
     <definedName name="Spreads" localSheetId="5">USDCurves!$I$18:$I$49</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1692,115 +1680,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="AUDDiscountCurve"/>
-      <sheetName val="AUDCurve6M"/>
-      <sheetName val="AUDCurve3M"/>
-      <sheetName val="AUDCurve1M"/>
-      <sheetName val="NZDCurve3M"/>
-      <sheetName val="GBPCurve3M"/>
-      <sheetName val="USDCurve3M"/>
-      <sheetName val="EURCurve3M"/>
-      <sheetName val="CHFCurve3M"/>
-      <sheetName val="Config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>AUD</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>AUD-BBR-BBSW</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>CalypsoAlgo4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>GBP</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>GBP-LIBOR-ISDA</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>FlatForward</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>USD-LIBOR-BBA</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>LinearZero</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>NZD</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>NZD-BBR-FRA</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>FastLinearZero</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>CHF</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>CHF-LIBOR-BBA</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Base algorithm</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>EUR</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>EUR-LIBOR-BBA</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>COE</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>EUR</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>EUR-EURIBOR-Telerate</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>SimpleGapStep</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2124,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2171,7 +2050,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2186,7 +2065,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3032,7 +2911,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -3040,7 +2919,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -3048,7 +2927,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5"/>
@@ -3062,7 +2941,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -3070,7 +2949,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -3078,7 +2957,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">H3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -4412,7 +4291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A9E1FB-AC17-4269-9FBB-50E3348F0D80}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:V1048576"/>
     </sheetView>
   </sheetViews>
@@ -4483,7 +4362,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.502158449075</v>
+        <v>43648.60990520833</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -4491,7 +4370,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">B3</f>
-        <v>43134.502158449075</v>
+        <v>43648.60990520833</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -4499,7 +4378,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.502158449075</v>
+        <v>43648.60990520833</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
@@ -4510,7 +4389,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134.502158449075</v>
+        <v>43648.60990520833</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -4518,7 +4397,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">B4</f>
-        <v>43134.502158449075</v>
+        <v>43648.60990520833</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -4526,7 +4405,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">H3</f>
-        <v>43134.502158449075</v>
+        <v>43648.60990520833</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -5899,7 +5778,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -5912,7 +5791,7 @@
       </c>
       <c r="J3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -5926,7 +5805,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5939,7 +5818,7 @@
       </c>
       <c r="J4" s="40">
         <f ca="1">J3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -7279,7 +7158,7 @@
       </c>
       <c r="B47" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -7288,7 +7167,7 @@
       </c>
       <c r="B48" s="40">
         <f ca="1">B47</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -7480,7 +7359,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -7488,7 +7367,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -7496,7 +7375,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5"/>
@@ -7509,7 +7388,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -7517,7 +7396,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -7525,7 +7404,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">E4</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -8611,7 +8490,7 @@
       </c>
       <c r="B47" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -8620,7 +8499,7 @@
       </c>
       <c r="B48" s="40">
         <f ca="1">B47</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -8818,7 +8697,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -8826,7 +8705,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -8834,7 +8713,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5"/>
@@ -8848,7 +8727,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -8856,7 +8735,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -8864,7 +8743,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">E4</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -10034,7 +9913,7 @@
       </c>
       <c r="B50" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -10043,7 +9922,7 @@
       </c>
       <c r="B51" s="40">
         <f ca="1">B50</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -10223,7 +10102,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -10231,7 +10110,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="5"/>
@@ -10245,7 +10124,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -10253,7 +10132,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="5"/>
@@ -11099,7 +10978,7 @@
       </c>
       <c r="B50" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -11108,7 +10987,7 @@
       </c>
       <c r="B51" s="40">
         <f ca="1">B50</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -11297,7 +11176,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -11305,7 +11184,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -11313,7 +11192,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5"/>
@@ -11327,7 +11206,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -11335,7 +11214,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -11343,7 +11222,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">E4</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -12668,7 +12547,7 @@
       </c>
       <c r="B55" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -12677,7 +12556,7 @@
       </c>
       <c r="B56" s="40">
         <f ca="1">B55</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -12893,7 +12772,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.50217673611</v>
+        <v>43648.609918865739</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -12901,7 +12780,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">B3</f>
-        <v>43134.50217673611</v>
+        <v>43648.609918865739</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -12909,7 +12788,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.502173958332</v>
+        <v>43648.609917824077</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
@@ -12925,7 +12804,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134.50217673611</v>
+        <v>43648.609918865739</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -12933,7 +12812,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">B4</f>
-        <v>43134.50217673611</v>
+        <v>43648.609918865739</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -12941,7 +12820,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">H3</f>
-        <v>43134.502173958332</v>
+        <v>43648.609917824077</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -14782,7 +14661,7 @@
       </c>
       <c r="B50" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.502165509257</v>
+        <v>43648.609910069441</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>119</v>
@@ -14803,7 +14682,7 @@
       </c>
       <c r="B51" s="40">
         <f ca="1">B50</f>
-        <v>43134.502165509257</v>
+        <v>43648.609910069441</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>120</v>
@@ -15041,7 +14920,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.502163888887</v>
+        <v>43648.609908564817</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -15049,7 +14928,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.502163888887</v>
+        <v>43648.609908564817</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -15057,7 +14936,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">NOW()</f>
-        <v>43134.502163888887</v>
+        <v>43648.609908564817</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
@@ -15073,7 +14952,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134.502163888887</v>
+        <v>43648.609908564817</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -15081,7 +14960,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">E3</f>
-        <v>43134.502163888887</v>
+        <v>43648.609908564817</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -15089,7 +14968,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">H3</f>
-        <v>43134.502163888887</v>
+        <v>43648.609908564817</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -17062,7 +16941,7 @@
       </c>
       <c r="B3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="35" t="s">
@@ -17070,7 +16949,7 @@
       </c>
       <c r="E3" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="35" t="s">
@@ -17078,7 +16957,7 @@
       </c>
       <c r="H3" s="43">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5"/>
@@ -17092,7 +16971,7 @@
       </c>
       <c r="B4" s="40">
         <f ca="1">B3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="36" t="s">
@@ -17100,7 +16979,7 @@
       </c>
       <c r="E4" s="40">
         <f ca="1">E3</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="36" t="s">
@@ -17108,7 +16987,7 @@
       </c>
       <c r="H4" s="40">
         <f ca="1">E4</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -18433,7 +18312,7 @@
       </c>
       <c r="B55" s="43">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -18442,7 +18321,7 @@
       </c>
       <c r="B56" s="40">
         <f ca="1">B55</f>
-        <v>43134</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
